--- a/Required Files/Files for Loading/newData.xlsx
+++ b/Required Files/Files for Loading/newData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Caden Gobat\Documents\GitHub\dark-GRBs\Required Files\Files for Loading\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41EFC0B6-35E4-49E1-AAA6-0DE492047B41}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99A8FE6E-8F7D-4D3B-98A4-750D30DB7BA6}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="28110" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,6 +33,7 @@
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
+    <author>Caden Gobat</author>
     <author>tc={D4C809EC-1E7F-4E6A-90E5-FAD6CC8F0742}</author>
     <author>tc={E62035E6-BDD5-4375-9FE5-8B0EA3430278}</author>
     <author>tc={A8477FC6-766C-4B63-833A-D035F2B5B6B2}</author>
@@ -43,7 +44,55 @@
     <author>tc={BAAF5C4B-F453-48B3-8DC5-EBC5D43DCCD0}</author>
   </authors>
   <commentList>
-    <comment ref="A239" authorId="0" shapeId="0" xr:uid="{D4C809EC-1E7F-4E6A-90E5-FAD6CC8F0742}">
+    <comment ref="F100" authorId="0" shapeId="0" xr:uid="{B90EE3D8-84CF-4AB9-9860-FCDC88BAECD2}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Caden Gobat:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+generic Bessel R</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F109" authorId="0" shapeId="0" xr:uid="{28B7BA9D-B45B-461F-B935-479307702698}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Caden Gobat:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+actual</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A239" authorId="1" shapeId="0" xr:uid="{D4C809EC-1E7F-4E6A-90E5-FAD6CC8F0742}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -51,7 +100,7 @@
     possible SGR</t>
       </text>
     </comment>
-    <comment ref="F574" authorId="1" shapeId="0" xr:uid="{E62035E6-BDD5-4375-9FE5-8B0EA3430278}">
+    <comment ref="F574" authorId="2" shapeId="0" xr:uid="{E62035E6-BDD5-4375-9FE5-8B0EA3430278}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -59,7 +108,7 @@
     SDSS r</t>
       </text>
     </comment>
-    <comment ref="F577" authorId="2" shapeId="0" xr:uid="{A8477FC6-766C-4B63-833A-D035F2B5B6B2}">
+    <comment ref="F577" authorId="3" shapeId="0" xr:uid="{A8477FC6-766C-4B63-833A-D035F2B5B6B2}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -67,7 +116,7 @@
     SDSS r</t>
       </text>
     </comment>
-    <comment ref="A582" authorId="3" shapeId="0" xr:uid="{59AF0540-8E5A-4B50-A775-7AE49B46C601}">
+    <comment ref="A582" authorId="4" shapeId="0" xr:uid="{59AF0540-8E5A-4B50-A775-7AE49B46C601}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -75,7 +124,7 @@
     burst from RXS object?</t>
       </text>
     </comment>
-    <comment ref="F582" authorId="4" shapeId="0" xr:uid="{EF2632B1-BC64-4655-A624-9CE12A09BE5C}">
+    <comment ref="F582" authorId="5" shapeId="0" xr:uid="{EF2632B1-BC64-4655-A624-9CE12A09BE5C}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -83,7 +132,7 @@
     SDSS r</t>
       </text>
     </comment>
-    <comment ref="F610" authorId="5" shapeId="0" xr:uid="{C2C32C18-B5C5-4784-BD1D-006BAB2E2CB4}">
+    <comment ref="F610" authorId="6" shapeId="0" xr:uid="{C2C32C18-B5C5-4784-BD1D-006BAB2E2CB4}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -91,7 +140,7 @@
     SDSS r</t>
       </text>
     </comment>
-    <comment ref="F630" authorId="6" shapeId="0" xr:uid="{430633F4-0F00-49B6-9CBC-762827CCFDF7}">
+    <comment ref="F630" authorId="7" shapeId="0" xr:uid="{430633F4-0F00-49B6-9CBC-762827CCFDF7}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -99,7 +148,7 @@
     SDSS r</t>
       </text>
     </comment>
-    <comment ref="F636" authorId="7" shapeId="0" xr:uid="{BAAF5C4B-F453-48B3-8DC5-EBC5D43DCCD0}">
+    <comment ref="F636" authorId="8" shapeId="0" xr:uid="{BAAF5C4B-F453-48B3-8DC5-EBC5D43DCCD0}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -1525,7 +1574,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="21">
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1672,6 +1721,13 @@
       <name val="Arial Unicode MS"/>
     </font>
     <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b/>
       <sz val="9"/>
       <color indexed="81"/>
       <name val="Tahoma"/>
@@ -2072,16 +2128,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2488,8 +2544,8 @@
   <dimension ref="A1:L636"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A290" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F322" sqref="F322"/>
+      <pane ySplit="1" topLeftCell="A86" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="N104" sqref="N104"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.83984375" defaultRowHeight="14.4"/>
@@ -2546,10 +2602,10 @@
       </c>
     </row>
     <row r="2" spans="1:12">
-      <c r="A2" s="18" t="s">
+      <c r="A2" s="20" t="s">
         <v>437</v>
       </c>
-      <c r="B2" s="19">
+      <c r="B2" s="21">
         <v>1017711</v>
       </c>
       <c r="C2" s="17" t="s">
@@ -2580,8 +2636,8 @@
       <c r="L2" s="16"/>
     </row>
     <row r="3" spans="1:12">
-      <c r="A3" s="18"/>
-      <c r="B3" s="19"/>
+      <c r="A3" s="20"/>
+      <c r="B3" s="21"/>
       <c r="C3" s="17"/>
       <c r="D3" s="17"/>
       <c r="E3" t="s">
@@ -2602,8 +2658,8 @@
       <c r="L3" s="16"/>
     </row>
     <row r="4" spans="1:12">
-      <c r="A4" s="18"/>
-      <c r="B4" s="19"/>
+      <c r="A4" s="20"/>
+      <c r="B4" s="21"/>
       <c r="C4" s="17"/>
       <c r="D4" s="17"/>
       <c r="E4" t="s">
@@ -2624,8 +2680,8 @@
       <c r="L4" s="16"/>
     </row>
     <row r="5" spans="1:12">
-      <c r="A5" s="18"/>
-      <c r="B5" s="19"/>
+      <c r="A5" s="20"/>
+      <c r="B5" s="21"/>
       <c r="C5" s="17"/>
       <c r="D5" s="17"/>
       <c r="E5" t="s">
@@ -2646,8 +2702,8 @@
       <c r="L5" s="16"/>
     </row>
     <row r="6" spans="1:12">
-      <c r="A6" s="18"/>
-      <c r="B6" s="19"/>
+      <c r="A6" s="20"/>
+      <c r="B6" s="21"/>
       <c r="C6" s="17"/>
       <c r="D6" s="17"/>
       <c r="E6" t="s">
@@ -2668,8 +2724,8 @@
       <c r="L6" s="16"/>
     </row>
     <row r="7" spans="1:12">
-      <c r="A7" s="18"/>
-      <c r="B7" s="19"/>
+      <c r="A7" s="20"/>
+      <c r="B7" s="21"/>
       <c r="C7" s="17"/>
       <c r="D7" s="16" t="s">
         <v>183</v>
@@ -4456,7 +4512,7 @@
       <c r="D74" s="17" t="s">
         <v>78</v>
       </c>
-      <c r="E74" s="21" t="s">
+      <c r="E74" s="18" t="s">
         <v>80</v>
       </c>
       <c r="F74" s="10"/>
@@ -4480,7 +4536,7 @@
       <c r="B75" s="17"/>
       <c r="C75" s="17"/>
       <c r="D75" s="17"/>
-      <c r="E75" s="21"/>
+      <c r="E75" s="18"/>
       <c r="F75" s="10"/>
       <c r="G75" s="9">
         <v>46794</v>
@@ -4500,7 +4556,7 @@
       <c r="B76" s="17"/>
       <c r="C76" s="17"/>
       <c r="D76" s="17"/>
-      <c r="E76" s="21"/>
+      <c r="E76" s="18"/>
       <c r="F76" s="10"/>
       <c r="G76" s="9">
         <v>47360</v>
@@ -4520,7 +4576,7 @@
       <c r="B77" s="17"/>
       <c r="C77" s="17"/>
       <c r="D77" s="17"/>
-      <c r="E77" s="21"/>
+      <c r="E77" s="18"/>
       <c r="F77" s="10"/>
       <c r="G77" s="9">
         <v>47363</v>
@@ -5128,7 +5184,9 @@
       <c r="E100" s="17" t="s">
         <v>47</v>
       </c>
-      <c r="F100" s="9"/>
+      <c r="F100" s="9">
+        <v>6414.2</v>
+      </c>
       <c r="G100" s="9">
         <f>0.25056*24*60*60</f>
         <v>21648.383999999998</v>
@@ -5151,7 +5209,9 @@
       <c r="C101" s="17"/>
       <c r="D101" s="17"/>
       <c r="E101" s="17"/>
-      <c r="F101" s="9"/>
+      <c r="F101" s="9">
+        <v>6414.2</v>
+      </c>
       <c r="G101" s="9">
         <f>0.32782*24*60*60</f>
         <v>28323.647999999997</v>
@@ -5172,7 +5232,9 @@
       <c r="C102" s="17"/>
       <c r="D102" s="17"/>
       <c r="E102" s="17"/>
-      <c r="F102" s="9"/>
+      <c r="F102" s="9">
+        <v>6414.2</v>
+      </c>
       <c r="G102" s="9">
         <f>1.18332*24*60*60</f>
         <v>102238.84799999998</v>
@@ -5201,7 +5263,9 @@
       <c r="E103" s="17" t="s">
         <v>47</v>
       </c>
-      <c r="F103" s="9"/>
+      <c r="F103" s="9">
+        <v>6414.2</v>
+      </c>
       <c r="G103" s="9"/>
       <c r="H103" s="9">
         <v>18</v>
@@ -5221,7 +5285,9 @@
       <c r="C104" s="17"/>
       <c r="D104" s="17"/>
       <c r="E104" s="17"/>
-      <c r="F104" s="9"/>
+      <c r="F104" s="9">
+        <v>6414.2</v>
+      </c>
       <c r="G104" s="9"/>
       <c r="H104" s="9">
         <v>18.100000000000001</v>
@@ -5245,7 +5311,9 @@
       <c r="E105" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="F105" s="9"/>
+      <c r="F105" s="9">
+        <v>6414.2</v>
+      </c>
       <c r="G105" s="9"/>
       <c r="H105" s="9">
         <v>18.38</v>
@@ -5271,7 +5339,9 @@
       <c r="E106" s="17" t="s">
         <v>47</v>
       </c>
-      <c r="F106" s="9"/>
+      <c r="F106" s="9">
+        <v>6414.2</v>
+      </c>
       <c r="G106" s="9">
         <f>2.5*60*60</f>
         <v>9000</v>
@@ -5292,7 +5362,9 @@
       <c r="C107" s="17"/>
       <c r="D107" s="17"/>
       <c r="E107" s="17"/>
-      <c r="F107" s="9"/>
+      <c r="F107" s="9">
+        <v>6414.2</v>
+      </c>
       <c r="G107" s="9">
         <f>1.3*24*60*60</f>
         <v>112320.00000000001</v>
@@ -5319,7 +5391,9 @@
       <c r="E108" s="6" t="s">
         <v>131</v>
       </c>
-      <c r="F108" s="9"/>
+      <c r="F108">
+        <v>6520.18</v>
+      </c>
       <c r="G108" s="9">
         <f>10.603*60*60</f>
         <v>38170.799999999996</v>
@@ -5348,7 +5422,9 @@
       <c r="E109" s="6" t="s">
         <v>87</v>
       </c>
-      <c r="F109" s="9"/>
+      <c r="F109">
+        <v>16195.58</v>
+      </c>
       <c r="G109" s="9">
         <f>11.6492*60*60</f>
         <v>41937.120000000003</v>
@@ -5377,7 +5453,9 @@
       <c r="E110" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="F110" s="9"/>
+      <c r="F110" s="9">
+        <v>6414.2</v>
+      </c>
       <c r="G110" s="9">
         <f>33.3*60*60</f>
         <v>119879.99999999999</v>
@@ -5406,7 +5484,9 @@
       <c r="E111" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="F111" s="9"/>
+      <c r="F111" s="13">
+        <v>6141.12</v>
+      </c>
       <c r="G111" s="9">
         <f>1.415*24*60*60</f>
         <v>122256.00000000001</v>
@@ -5435,7 +5515,9 @@
       <c r="E112" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="F112" s="9"/>
+      <c r="F112" s="9">
+        <v>6414.2</v>
+      </c>
       <c r="G112" s="9">
         <f>2.1*24*60*60</f>
         <v>181440.00000000003</v>
@@ -5464,7 +5546,9 @@
       <c r="E113" s="17" t="s">
         <v>47</v>
       </c>
-      <c r="F113" s="9"/>
+      <c r="F113" s="9">
+        <v>6414.2</v>
+      </c>
       <c r="G113" s="9">
         <f>0.31732*24*60*60</f>
         <v>27416.447999999997</v>
@@ -5487,7 +5571,9 @@
       <c r="C114" s="17"/>
       <c r="D114" s="17"/>
       <c r="E114" s="17"/>
-      <c r="F114" s="9"/>
+      <c r="F114" s="9">
+        <v>6414.2</v>
+      </c>
       <c r="G114" s="9">
         <f>0.35092*24*60*60</f>
         <v>30319.488000000005</v>
@@ -5508,7 +5594,9 @@
       <c r="C115" s="17"/>
       <c r="D115" s="17"/>
       <c r="E115" s="17"/>
-      <c r="F115" s="9"/>
+      <c r="F115" s="9">
+        <v>6414.2</v>
+      </c>
       <c r="G115" s="9">
         <f>1.36775*24*60*60</f>
         <v>118173.59999999999</v>
@@ -7652,7 +7740,7 @@
     <row r="197" spans="1:12">
       <c r="A197" s="17"/>
       <c r="B197" s="17"/>
-      <c r="C197" s="20" t="s">
+      <c r="C197" s="19" t="s">
         <v>205</v>
       </c>
       <c r="D197" s="17" t="s">
@@ -7683,7 +7771,7 @@
     <row r="198" spans="1:12">
       <c r="A198" s="17"/>
       <c r="B198" s="17"/>
-      <c r="C198" s="20"/>
+      <c r="C198" s="19"/>
       <c r="D198" s="17"/>
       <c r="E198" s="6" t="s">
         <v>52</v>
@@ -18796,274 +18884,119 @@
     </row>
   </sheetData>
   <mergeCells count="408">
-    <mergeCell ref="K335:K363"/>
-    <mergeCell ref="K99:K119"/>
-    <mergeCell ref="K121:K151"/>
-    <mergeCell ref="K152:K156"/>
-    <mergeCell ref="K157:K171"/>
-    <mergeCell ref="K173:K181"/>
-    <mergeCell ref="K185:K200"/>
-    <mergeCell ref="K536:K544"/>
-    <mergeCell ref="K545:K561"/>
-    <mergeCell ref="K562:K581"/>
-    <mergeCell ref="K582:K593"/>
-    <mergeCell ref="K594:K636"/>
-    <mergeCell ref="K365:K413"/>
-    <mergeCell ref="K414:K427"/>
-    <mergeCell ref="K428:K454"/>
-    <mergeCell ref="K455:K468"/>
-    <mergeCell ref="K469:K485"/>
-    <mergeCell ref="K486:K497"/>
-    <mergeCell ref="K498:K512"/>
-    <mergeCell ref="K513:K516"/>
-    <mergeCell ref="K517:K535"/>
-    <mergeCell ref="K201:K216"/>
-    <mergeCell ref="K217:K228"/>
-    <mergeCell ref="K229:K238"/>
-    <mergeCell ref="K239:K262"/>
-    <mergeCell ref="K263:K287"/>
-    <mergeCell ref="K288:K290"/>
-    <mergeCell ref="K291:K296"/>
-    <mergeCell ref="K297:K310"/>
-    <mergeCell ref="K311:K317"/>
-    <mergeCell ref="K318:K334"/>
-    <mergeCell ref="A44:A52"/>
-    <mergeCell ref="J44:J52"/>
-    <mergeCell ref="J31:J38"/>
-    <mergeCell ref="C31:C38"/>
-    <mergeCell ref="D31:D38"/>
-    <mergeCell ref="K78:K98"/>
-    <mergeCell ref="K65:K77"/>
-    <mergeCell ref="K53:K64"/>
-    <mergeCell ref="K44:K52"/>
-    <mergeCell ref="J324:J332"/>
-    <mergeCell ref="D324:D332"/>
-    <mergeCell ref="C324:C332"/>
-    <mergeCell ref="C311:C314"/>
-    <mergeCell ref="D311:D314"/>
-    <mergeCell ref="B311:B317"/>
-    <mergeCell ref="B318:B334"/>
-    <mergeCell ref="A318:A334"/>
-    <mergeCell ref="A311:A317"/>
-    <mergeCell ref="J297:J298"/>
-    <mergeCell ref="D297:D298"/>
-    <mergeCell ref="C297:C298"/>
-    <mergeCell ref="J301:J309"/>
-    <mergeCell ref="D301:D309"/>
-    <mergeCell ref="C487:C495"/>
-    <mergeCell ref="D487:D495"/>
-    <mergeCell ref="J487:J495"/>
-    <mergeCell ref="J498:J506"/>
-    <mergeCell ref="D498:D506"/>
-    <mergeCell ref="C498:C506"/>
-    <mergeCell ref="B486:B497"/>
-    <mergeCell ref="A486:A497"/>
-    <mergeCell ref="J470:J477"/>
-    <mergeCell ref="D470:D477"/>
-    <mergeCell ref="C470:C477"/>
-    <mergeCell ref="J478:J484"/>
-    <mergeCell ref="D478:D484"/>
-    <mergeCell ref="C478:C484"/>
-    <mergeCell ref="B469:B485"/>
-    <mergeCell ref="A469:A485"/>
-    <mergeCell ref="D455:D462"/>
-    <mergeCell ref="J455:J462"/>
-    <mergeCell ref="C455:C462"/>
-    <mergeCell ref="B428:B454"/>
-    <mergeCell ref="A428:A454"/>
-    <mergeCell ref="D466:D468"/>
-    <mergeCell ref="C466:C468"/>
-    <mergeCell ref="J466:J468"/>
-    <mergeCell ref="B455:B468"/>
-    <mergeCell ref="A455:A468"/>
-    <mergeCell ref="J437:J438"/>
-    <mergeCell ref="D437:D438"/>
-    <mergeCell ref="C437:C438"/>
-    <mergeCell ref="J442:J444"/>
-    <mergeCell ref="D442:D444"/>
-    <mergeCell ref="C442:C444"/>
-    <mergeCell ref="J445:J452"/>
-    <mergeCell ref="D445:D452"/>
-    <mergeCell ref="C445:C452"/>
-    <mergeCell ref="J428:J429"/>
-    <mergeCell ref="C428:C429"/>
-    <mergeCell ref="J430:J432"/>
-    <mergeCell ref="C430:C433"/>
-    <mergeCell ref="D430:D433"/>
-    <mergeCell ref="D435:D436"/>
-    <mergeCell ref="C435:C436"/>
-    <mergeCell ref="D415:D417"/>
-    <mergeCell ref="C415:C417"/>
-    <mergeCell ref="J415:J417"/>
-    <mergeCell ref="J419:J427"/>
-    <mergeCell ref="D419:D427"/>
-    <mergeCell ref="C419:C427"/>
-    <mergeCell ref="B414:B427"/>
-    <mergeCell ref="A414:A427"/>
-    <mergeCell ref="B365:B413"/>
-    <mergeCell ref="A365:A413"/>
-    <mergeCell ref="B335:B363"/>
-    <mergeCell ref="A335:A363"/>
-    <mergeCell ref="C365:D365"/>
-    <mergeCell ref="J366:J405"/>
-    <mergeCell ref="D366:D405"/>
-    <mergeCell ref="C366:C405"/>
-    <mergeCell ref="J407:J413"/>
-    <mergeCell ref="D407:D413"/>
-    <mergeCell ref="C407:C413"/>
-    <mergeCell ref="J336:J349"/>
-    <mergeCell ref="D336:D349"/>
-    <mergeCell ref="C336:C349"/>
-    <mergeCell ref="J350:J358"/>
-    <mergeCell ref="D350:D358"/>
-    <mergeCell ref="C350:C358"/>
-    <mergeCell ref="J361:J363"/>
-    <mergeCell ref="D361:D363"/>
-    <mergeCell ref="C361:C363"/>
-    <mergeCell ref="C301:C309"/>
-    <mergeCell ref="B297:B310"/>
-    <mergeCell ref="A297:A310"/>
-    <mergeCell ref="J311:J314"/>
-    <mergeCell ref="J288:J290"/>
-    <mergeCell ref="D288:D290"/>
-    <mergeCell ref="E288:E290"/>
-    <mergeCell ref="C288:C290"/>
-    <mergeCell ref="B288:B290"/>
-    <mergeCell ref="A288:A290"/>
-    <mergeCell ref="J292:J296"/>
-    <mergeCell ref="D292:D296"/>
-    <mergeCell ref="C292:C296"/>
-    <mergeCell ref="A291:A296"/>
-    <mergeCell ref="B291:B296"/>
-    <mergeCell ref="B185:B200"/>
-    <mergeCell ref="A185:A200"/>
-    <mergeCell ref="J173:J181"/>
-    <mergeCell ref="D173:D181"/>
-    <mergeCell ref="C173:C181"/>
-    <mergeCell ref="B173:B181"/>
-    <mergeCell ref="A173:A181"/>
-    <mergeCell ref="J158:J166"/>
-    <mergeCell ref="D157:D166"/>
-    <mergeCell ref="C157:C166"/>
-    <mergeCell ref="A182:A184"/>
-    <mergeCell ref="B182:B184"/>
-    <mergeCell ref="J182:J184"/>
-    <mergeCell ref="C182:C184"/>
-    <mergeCell ref="J170:J171"/>
-    <mergeCell ref="J84:J86"/>
-    <mergeCell ref="J87:J95"/>
-    <mergeCell ref="D87:D95"/>
-    <mergeCell ref="C87:C95"/>
-    <mergeCell ref="J56:J58"/>
-    <mergeCell ref="C56:C58"/>
-    <mergeCell ref="D56:D58"/>
-    <mergeCell ref="C113:C115"/>
-    <mergeCell ref="D113:D115"/>
-    <mergeCell ref="C106:C107"/>
-    <mergeCell ref="D106:D107"/>
-    <mergeCell ref="J100:J101"/>
-    <mergeCell ref="J103:J104"/>
-    <mergeCell ref="E103:E104"/>
-    <mergeCell ref="E100:E102"/>
-    <mergeCell ref="E113:E115"/>
-    <mergeCell ref="J113:J115"/>
-    <mergeCell ref="B78:B98"/>
-    <mergeCell ref="A78:A98"/>
-    <mergeCell ref="D74:D77"/>
-    <mergeCell ref="J53:J54"/>
-    <mergeCell ref="J78:J83"/>
-    <mergeCell ref="C78:C83"/>
-    <mergeCell ref="D78:D83"/>
-    <mergeCell ref="C65:C73"/>
-    <mergeCell ref="J74:J77"/>
-    <mergeCell ref="C74:C77"/>
-    <mergeCell ref="E74:E77"/>
-    <mergeCell ref="E59:E60"/>
-    <mergeCell ref="E61:E63"/>
-    <mergeCell ref="D65:D73"/>
-    <mergeCell ref="J65:J73"/>
-    <mergeCell ref="C84:C86"/>
-    <mergeCell ref="D84:D86"/>
-    <mergeCell ref="B65:B77"/>
-    <mergeCell ref="A65:A77"/>
-    <mergeCell ref="J62:J63"/>
-    <mergeCell ref="J59:J60"/>
-    <mergeCell ref="C53:C54"/>
-    <mergeCell ref="D53:D54"/>
-    <mergeCell ref="C59:C63"/>
-    <mergeCell ref="B99:B119"/>
-    <mergeCell ref="A99:A119"/>
-    <mergeCell ref="C170:C171"/>
-    <mergeCell ref="C152:C154"/>
-    <mergeCell ref="D152:D154"/>
-    <mergeCell ref="B121:B151"/>
-    <mergeCell ref="A121:A151"/>
-    <mergeCell ref="A152:A156"/>
-    <mergeCell ref="B152:B156"/>
-    <mergeCell ref="D147:D149"/>
-    <mergeCell ref="C103:C104"/>
-    <mergeCell ref="D103:D104"/>
-    <mergeCell ref="B157:B171"/>
-    <mergeCell ref="A157:A171"/>
-    <mergeCell ref="C118:C119"/>
-    <mergeCell ref="D118:D119"/>
-    <mergeCell ref="D116:D117"/>
-    <mergeCell ref="C116:C117"/>
-    <mergeCell ref="C168:C169"/>
-    <mergeCell ref="D168:D169"/>
-    <mergeCell ref="D100:D102"/>
-    <mergeCell ref="C100:C102"/>
-    <mergeCell ref="J118:J119"/>
-    <mergeCell ref="J116:J117"/>
-    <mergeCell ref="J121:J135"/>
-    <mergeCell ref="J143:J144"/>
-    <mergeCell ref="E106:E107"/>
-    <mergeCell ref="J152:J154"/>
-    <mergeCell ref="J147:J149"/>
-    <mergeCell ref="C147:C149"/>
-    <mergeCell ref="C121:C141"/>
-    <mergeCell ref="J136:J141"/>
-    <mergeCell ref="J199:J200"/>
-    <mergeCell ref="C199:C200"/>
-    <mergeCell ref="J189:J196"/>
-    <mergeCell ref="C185:C186"/>
-    <mergeCell ref="D185:D186"/>
-    <mergeCell ref="D189:D196"/>
-    <mergeCell ref="C189:C196"/>
-    <mergeCell ref="J197:J198"/>
-    <mergeCell ref="D197:D198"/>
-    <mergeCell ref="C197:C198"/>
-    <mergeCell ref="A201:A216"/>
-    <mergeCell ref="B201:B216"/>
-    <mergeCell ref="J217:J225"/>
-    <mergeCell ref="C217:C225"/>
-    <mergeCell ref="D217:D225"/>
-    <mergeCell ref="J226:J228"/>
-    <mergeCell ref="D226:D228"/>
-    <mergeCell ref="C226:C228"/>
-    <mergeCell ref="C202:C203"/>
-    <mergeCell ref="D202:D203"/>
-    <mergeCell ref="J202:J203"/>
-    <mergeCell ref="J204:J206"/>
-    <mergeCell ref="C204:C206"/>
-    <mergeCell ref="D204:D206"/>
-    <mergeCell ref="J207:J214"/>
-    <mergeCell ref="C207:C214"/>
-    <mergeCell ref="D207:D214"/>
-    <mergeCell ref="D215:D216"/>
-    <mergeCell ref="C215:C216"/>
-    <mergeCell ref="J215:J216"/>
-    <mergeCell ref="D249:D250"/>
-    <mergeCell ref="J229:J230"/>
-    <mergeCell ref="D229:D230"/>
-    <mergeCell ref="C229:C230"/>
-    <mergeCell ref="B217:B228"/>
-    <mergeCell ref="A217:A228"/>
-    <mergeCell ref="A229:A238"/>
-    <mergeCell ref="B229:B238"/>
-    <mergeCell ref="C231:C238"/>
-    <mergeCell ref="D231:D238"/>
-    <mergeCell ref="J231:J238"/>
+    <mergeCell ref="A27:A43"/>
+    <mergeCell ref="B27:B43"/>
+    <mergeCell ref="C27:C30"/>
+    <mergeCell ref="D27:D30"/>
+    <mergeCell ref="K27:K43"/>
+    <mergeCell ref="A2:A7"/>
+    <mergeCell ref="B2:B7"/>
+    <mergeCell ref="J2:J6"/>
+    <mergeCell ref="C2:C7"/>
+    <mergeCell ref="D2:D6"/>
+    <mergeCell ref="K2:K7"/>
+    <mergeCell ref="C12:C13"/>
+    <mergeCell ref="D12:D13"/>
+    <mergeCell ref="C14:C21"/>
+    <mergeCell ref="D14:D21"/>
+    <mergeCell ref="J14:J21"/>
+    <mergeCell ref="C22:C24"/>
+    <mergeCell ref="D22:D24"/>
+    <mergeCell ref="J22:J24"/>
+    <mergeCell ref="K8:K26"/>
+    <mergeCell ref="A8:A26"/>
+    <mergeCell ref="D44:D52"/>
+    <mergeCell ref="C44:C52"/>
+    <mergeCell ref="B44:B52"/>
+    <mergeCell ref="J12:J13"/>
+    <mergeCell ref="J27:J30"/>
+    <mergeCell ref="C39:C41"/>
+    <mergeCell ref="D39:D41"/>
+    <mergeCell ref="J39:J41"/>
+    <mergeCell ref="B8:B26"/>
+    <mergeCell ref="J630:J632"/>
+    <mergeCell ref="D630:D632"/>
+    <mergeCell ref="C630:C632"/>
+    <mergeCell ref="J633:J635"/>
+    <mergeCell ref="D633:D635"/>
+    <mergeCell ref="C633:C635"/>
+    <mergeCell ref="B594:B636"/>
+    <mergeCell ref="A594:A636"/>
+    <mergeCell ref="J614:J622"/>
+    <mergeCell ref="D614:D622"/>
+    <mergeCell ref="C614:C622"/>
+    <mergeCell ref="J623:J624"/>
+    <mergeCell ref="C623:C624"/>
+    <mergeCell ref="D623:D624"/>
+    <mergeCell ref="J625:J627"/>
+    <mergeCell ref="D625:D627"/>
+    <mergeCell ref="C625:C627"/>
+    <mergeCell ref="J594:J600"/>
+    <mergeCell ref="D594:D600"/>
+    <mergeCell ref="C594:C600"/>
+    <mergeCell ref="C602:C608"/>
+    <mergeCell ref="D602:D608"/>
+    <mergeCell ref="J602:J608"/>
+    <mergeCell ref="J610:J612"/>
+    <mergeCell ref="D610:D612"/>
+    <mergeCell ref="C610:C612"/>
+    <mergeCell ref="J577:J579"/>
+    <mergeCell ref="D574:D579"/>
+    <mergeCell ref="C574:C579"/>
+    <mergeCell ref="B562:B581"/>
+    <mergeCell ref="A562:A581"/>
+    <mergeCell ref="J582:J584"/>
+    <mergeCell ref="D582:D584"/>
+    <mergeCell ref="C582:C584"/>
+    <mergeCell ref="J585:J593"/>
+    <mergeCell ref="D585:D593"/>
+    <mergeCell ref="C585:C593"/>
+    <mergeCell ref="B582:B593"/>
+    <mergeCell ref="A582:A593"/>
+    <mergeCell ref="J562:J563"/>
+    <mergeCell ref="J564:J572"/>
+    <mergeCell ref="C564:C572"/>
+    <mergeCell ref="D564:D572"/>
+    <mergeCell ref="J574:J576"/>
+    <mergeCell ref="C562:C563"/>
+    <mergeCell ref="D562:D563"/>
+    <mergeCell ref="J539:J543"/>
+    <mergeCell ref="D539:D543"/>
+    <mergeCell ref="C539:C543"/>
+    <mergeCell ref="B536:B544"/>
+    <mergeCell ref="A536:A544"/>
+    <mergeCell ref="J546:J554"/>
+    <mergeCell ref="D546:D554"/>
+    <mergeCell ref="C546:C554"/>
+    <mergeCell ref="J555:J561"/>
+    <mergeCell ref="D555:D561"/>
+    <mergeCell ref="C555:C561"/>
+    <mergeCell ref="B545:B561"/>
+    <mergeCell ref="A545:A561"/>
+    <mergeCell ref="J517:J528"/>
+    <mergeCell ref="D517:D528"/>
+    <mergeCell ref="C517:C528"/>
+    <mergeCell ref="J529:J535"/>
+    <mergeCell ref="D529:D535"/>
+    <mergeCell ref="C529:C535"/>
+    <mergeCell ref="B517:B535"/>
+    <mergeCell ref="A517:A535"/>
+    <mergeCell ref="J536:J537"/>
+    <mergeCell ref="D536:D537"/>
+    <mergeCell ref="C536:C537"/>
+    <mergeCell ref="J507:J509"/>
+    <mergeCell ref="D507:D509"/>
+    <mergeCell ref="C507:C509"/>
+    <mergeCell ref="J510:J512"/>
+    <mergeCell ref="D510:D512"/>
+    <mergeCell ref="C510:C512"/>
+    <mergeCell ref="B498:B512"/>
+    <mergeCell ref="A498:A512"/>
+    <mergeCell ref="J514:J516"/>
+    <mergeCell ref="D514:D516"/>
+    <mergeCell ref="C514:C516"/>
+    <mergeCell ref="B513:B516"/>
+    <mergeCell ref="A513:A516"/>
     <mergeCell ref="J286:J287"/>
     <mergeCell ref="C286:C287"/>
     <mergeCell ref="D286:D287"/>
@@ -19088,122 +19021,277 @@
     <mergeCell ref="D251:D262"/>
     <mergeCell ref="C251:C262"/>
     <mergeCell ref="C249:C250"/>
-    <mergeCell ref="J507:J509"/>
-    <mergeCell ref="D507:D509"/>
-    <mergeCell ref="C507:C509"/>
-    <mergeCell ref="J510:J512"/>
-    <mergeCell ref="D510:D512"/>
-    <mergeCell ref="C510:C512"/>
-    <mergeCell ref="B498:B512"/>
-    <mergeCell ref="A498:A512"/>
-    <mergeCell ref="J514:J516"/>
-    <mergeCell ref="D514:D516"/>
-    <mergeCell ref="C514:C516"/>
-    <mergeCell ref="B513:B516"/>
-    <mergeCell ref="A513:A516"/>
-    <mergeCell ref="J517:J528"/>
-    <mergeCell ref="D517:D528"/>
-    <mergeCell ref="C517:C528"/>
-    <mergeCell ref="J529:J535"/>
-    <mergeCell ref="D529:D535"/>
-    <mergeCell ref="C529:C535"/>
-    <mergeCell ref="B517:B535"/>
-    <mergeCell ref="A517:A535"/>
-    <mergeCell ref="J536:J537"/>
-    <mergeCell ref="D536:D537"/>
-    <mergeCell ref="C536:C537"/>
-    <mergeCell ref="J539:J543"/>
-    <mergeCell ref="D539:D543"/>
-    <mergeCell ref="C539:C543"/>
-    <mergeCell ref="B536:B544"/>
-    <mergeCell ref="A536:A544"/>
-    <mergeCell ref="J546:J554"/>
-    <mergeCell ref="D546:D554"/>
-    <mergeCell ref="C546:C554"/>
-    <mergeCell ref="J555:J561"/>
-    <mergeCell ref="D555:D561"/>
-    <mergeCell ref="C555:C561"/>
-    <mergeCell ref="B545:B561"/>
-    <mergeCell ref="A545:A561"/>
-    <mergeCell ref="J610:J612"/>
-    <mergeCell ref="D610:D612"/>
-    <mergeCell ref="C610:C612"/>
-    <mergeCell ref="J577:J579"/>
-    <mergeCell ref="D574:D579"/>
-    <mergeCell ref="C574:C579"/>
-    <mergeCell ref="B562:B581"/>
-    <mergeCell ref="A562:A581"/>
-    <mergeCell ref="J582:J584"/>
-    <mergeCell ref="D582:D584"/>
-    <mergeCell ref="C582:C584"/>
-    <mergeCell ref="J585:J593"/>
-    <mergeCell ref="D585:D593"/>
-    <mergeCell ref="C585:C593"/>
-    <mergeCell ref="B582:B593"/>
-    <mergeCell ref="A582:A593"/>
-    <mergeCell ref="J562:J563"/>
-    <mergeCell ref="J564:J572"/>
-    <mergeCell ref="C564:C572"/>
-    <mergeCell ref="D564:D572"/>
-    <mergeCell ref="J574:J576"/>
-    <mergeCell ref="C562:C563"/>
-    <mergeCell ref="D562:D563"/>
+    <mergeCell ref="D249:D250"/>
+    <mergeCell ref="J229:J230"/>
+    <mergeCell ref="D229:D230"/>
+    <mergeCell ref="C229:C230"/>
+    <mergeCell ref="B217:B228"/>
+    <mergeCell ref="A217:A228"/>
+    <mergeCell ref="A229:A238"/>
+    <mergeCell ref="B229:B238"/>
+    <mergeCell ref="C231:C238"/>
+    <mergeCell ref="D231:D238"/>
+    <mergeCell ref="J231:J238"/>
+    <mergeCell ref="A201:A216"/>
+    <mergeCell ref="B201:B216"/>
+    <mergeCell ref="J217:J225"/>
+    <mergeCell ref="C217:C225"/>
+    <mergeCell ref="D217:D225"/>
+    <mergeCell ref="J226:J228"/>
+    <mergeCell ref="D226:D228"/>
+    <mergeCell ref="C226:C228"/>
+    <mergeCell ref="C202:C203"/>
+    <mergeCell ref="D202:D203"/>
+    <mergeCell ref="J202:J203"/>
+    <mergeCell ref="J204:J206"/>
+    <mergeCell ref="C204:C206"/>
+    <mergeCell ref="D204:D206"/>
+    <mergeCell ref="J207:J214"/>
+    <mergeCell ref="C207:C214"/>
+    <mergeCell ref="D207:D214"/>
+    <mergeCell ref="D215:D216"/>
+    <mergeCell ref="C215:C216"/>
+    <mergeCell ref="J215:J216"/>
+    <mergeCell ref="J121:J135"/>
+    <mergeCell ref="J143:J144"/>
+    <mergeCell ref="E106:E107"/>
+    <mergeCell ref="J152:J154"/>
+    <mergeCell ref="J147:J149"/>
+    <mergeCell ref="C147:C149"/>
+    <mergeCell ref="C121:C141"/>
+    <mergeCell ref="J136:J141"/>
+    <mergeCell ref="J199:J200"/>
+    <mergeCell ref="C199:C200"/>
+    <mergeCell ref="J189:J196"/>
+    <mergeCell ref="C185:C186"/>
+    <mergeCell ref="D185:D186"/>
+    <mergeCell ref="D189:D196"/>
+    <mergeCell ref="C189:C196"/>
+    <mergeCell ref="J197:J198"/>
+    <mergeCell ref="D197:D198"/>
+    <mergeCell ref="C197:C198"/>
+    <mergeCell ref="C152:C154"/>
+    <mergeCell ref="D152:D154"/>
+    <mergeCell ref="B121:B151"/>
+    <mergeCell ref="A121:A151"/>
+    <mergeCell ref="A152:A156"/>
+    <mergeCell ref="B152:B156"/>
+    <mergeCell ref="D147:D149"/>
+    <mergeCell ref="C103:C104"/>
+    <mergeCell ref="D103:D104"/>
+    <mergeCell ref="C118:C119"/>
+    <mergeCell ref="D118:D119"/>
+    <mergeCell ref="D116:D117"/>
+    <mergeCell ref="C116:C117"/>
+    <mergeCell ref="B65:B77"/>
+    <mergeCell ref="A65:A77"/>
+    <mergeCell ref="J62:J63"/>
+    <mergeCell ref="J59:J60"/>
+    <mergeCell ref="C53:C54"/>
+    <mergeCell ref="D53:D54"/>
+    <mergeCell ref="C59:C63"/>
+    <mergeCell ref="B99:B119"/>
+    <mergeCell ref="A99:A119"/>
+    <mergeCell ref="D100:D102"/>
+    <mergeCell ref="C100:C102"/>
+    <mergeCell ref="J118:J119"/>
+    <mergeCell ref="J116:J117"/>
     <mergeCell ref="A53:A64"/>
-    <mergeCell ref="J630:J632"/>
-    <mergeCell ref="D630:D632"/>
-    <mergeCell ref="C630:C632"/>
-    <mergeCell ref="J633:J635"/>
-    <mergeCell ref="D633:D635"/>
-    <mergeCell ref="C633:C635"/>
-    <mergeCell ref="B594:B636"/>
-    <mergeCell ref="A594:A636"/>
-    <mergeCell ref="J614:J622"/>
-    <mergeCell ref="D614:D622"/>
-    <mergeCell ref="C614:C622"/>
-    <mergeCell ref="J623:J624"/>
-    <mergeCell ref="C623:C624"/>
-    <mergeCell ref="D623:D624"/>
-    <mergeCell ref="J625:J627"/>
-    <mergeCell ref="D625:D627"/>
-    <mergeCell ref="C625:C627"/>
-    <mergeCell ref="J594:J600"/>
-    <mergeCell ref="D594:D600"/>
-    <mergeCell ref="C594:C600"/>
-    <mergeCell ref="C602:C608"/>
-    <mergeCell ref="D602:D608"/>
-    <mergeCell ref="J602:J608"/>
     <mergeCell ref="B53:B64"/>
     <mergeCell ref="D59:D63"/>
-    <mergeCell ref="D44:D52"/>
-    <mergeCell ref="C44:C52"/>
-    <mergeCell ref="B44:B52"/>
-    <mergeCell ref="J12:J13"/>
-    <mergeCell ref="J27:J30"/>
-    <mergeCell ref="C39:C41"/>
-    <mergeCell ref="D39:D41"/>
-    <mergeCell ref="J39:J41"/>
-    <mergeCell ref="B8:B26"/>
-    <mergeCell ref="A27:A43"/>
-    <mergeCell ref="B27:B43"/>
-    <mergeCell ref="C27:C30"/>
-    <mergeCell ref="D27:D30"/>
-    <mergeCell ref="K27:K43"/>
-    <mergeCell ref="A2:A7"/>
-    <mergeCell ref="B2:B7"/>
-    <mergeCell ref="J2:J6"/>
-    <mergeCell ref="C2:C7"/>
-    <mergeCell ref="D2:D6"/>
-    <mergeCell ref="K2:K7"/>
-    <mergeCell ref="C12:C13"/>
-    <mergeCell ref="D12:D13"/>
-    <mergeCell ref="C14:C21"/>
-    <mergeCell ref="D14:D21"/>
-    <mergeCell ref="J14:J21"/>
-    <mergeCell ref="C22:C24"/>
-    <mergeCell ref="D22:D24"/>
-    <mergeCell ref="J22:J24"/>
-    <mergeCell ref="K8:K26"/>
-    <mergeCell ref="A8:A26"/>
+    <mergeCell ref="J74:J77"/>
+    <mergeCell ref="C74:C77"/>
+    <mergeCell ref="E74:E77"/>
+    <mergeCell ref="E59:E60"/>
+    <mergeCell ref="E61:E63"/>
+    <mergeCell ref="D65:D73"/>
+    <mergeCell ref="J65:J73"/>
+    <mergeCell ref="C84:C86"/>
+    <mergeCell ref="D84:D86"/>
+    <mergeCell ref="C113:C115"/>
+    <mergeCell ref="D113:D115"/>
+    <mergeCell ref="C106:C107"/>
+    <mergeCell ref="D106:D107"/>
+    <mergeCell ref="J100:J101"/>
+    <mergeCell ref="J103:J104"/>
+    <mergeCell ref="E103:E104"/>
+    <mergeCell ref="E100:E102"/>
+    <mergeCell ref="E113:E115"/>
+    <mergeCell ref="J113:J115"/>
+    <mergeCell ref="B185:B200"/>
+    <mergeCell ref="A185:A200"/>
+    <mergeCell ref="J173:J181"/>
+    <mergeCell ref="D173:D181"/>
+    <mergeCell ref="C173:C181"/>
+    <mergeCell ref="B173:B181"/>
+    <mergeCell ref="A173:A181"/>
+    <mergeCell ref="J158:J166"/>
+    <mergeCell ref="D157:D166"/>
+    <mergeCell ref="C157:C166"/>
+    <mergeCell ref="A182:A184"/>
+    <mergeCell ref="B182:B184"/>
+    <mergeCell ref="J182:J184"/>
+    <mergeCell ref="C182:C184"/>
+    <mergeCell ref="J170:J171"/>
+    <mergeCell ref="C170:C171"/>
+    <mergeCell ref="B157:B171"/>
+    <mergeCell ref="A157:A171"/>
+    <mergeCell ref="C168:C169"/>
+    <mergeCell ref="D168:D169"/>
+    <mergeCell ref="B297:B310"/>
+    <mergeCell ref="A297:A310"/>
+    <mergeCell ref="J311:J314"/>
+    <mergeCell ref="J288:J290"/>
+    <mergeCell ref="D288:D290"/>
+    <mergeCell ref="E288:E290"/>
+    <mergeCell ref="C288:C290"/>
+    <mergeCell ref="B288:B290"/>
+    <mergeCell ref="A288:A290"/>
+    <mergeCell ref="J292:J296"/>
+    <mergeCell ref="D292:D296"/>
+    <mergeCell ref="C292:C296"/>
+    <mergeCell ref="A291:A296"/>
+    <mergeCell ref="B291:B296"/>
+    <mergeCell ref="B414:B427"/>
+    <mergeCell ref="A414:A427"/>
+    <mergeCell ref="B365:B413"/>
+    <mergeCell ref="A365:A413"/>
+    <mergeCell ref="B335:B363"/>
+    <mergeCell ref="A335:A363"/>
+    <mergeCell ref="C365:D365"/>
+    <mergeCell ref="J366:J405"/>
+    <mergeCell ref="D366:D405"/>
+    <mergeCell ref="C366:C405"/>
+    <mergeCell ref="J407:J413"/>
+    <mergeCell ref="D407:D413"/>
+    <mergeCell ref="C407:C413"/>
+    <mergeCell ref="J336:J349"/>
+    <mergeCell ref="D336:D349"/>
+    <mergeCell ref="C336:C349"/>
+    <mergeCell ref="J350:J358"/>
+    <mergeCell ref="D350:D358"/>
+    <mergeCell ref="C350:C358"/>
+    <mergeCell ref="J361:J363"/>
+    <mergeCell ref="D361:D363"/>
+    <mergeCell ref="C361:C363"/>
+    <mergeCell ref="B428:B454"/>
+    <mergeCell ref="A428:A454"/>
+    <mergeCell ref="D466:D468"/>
+    <mergeCell ref="C466:C468"/>
+    <mergeCell ref="J466:J468"/>
+    <mergeCell ref="B455:B468"/>
+    <mergeCell ref="A455:A468"/>
+    <mergeCell ref="J437:J438"/>
+    <mergeCell ref="D437:D438"/>
+    <mergeCell ref="C437:C438"/>
+    <mergeCell ref="J442:J444"/>
+    <mergeCell ref="D442:D444"/>
+    <mergeCell ref="C442:C444"/>
+    <mergeCell ref="J445:J452"/>
+    <mergeCell ref="D445:D452"/>
+    <mergeCell ref="C445:C452"/>
+    <mergeCell ref="J428:J429"/>
+    <mergeCell ref="C428:C429"/>
+    <mergeCell ref="J430:J432"/>
+    <mergeCell ref="C430:C433"/>
+    <mergeCell ref="D430:D433"/>
+    <mergeCell ref="D435:D436"/>
+    <mergeCell ref="C435:C436"/>
+    <mergeCell ref="B486:B497"/>
+    <mergeCell ref="A486:A497"/>
+    <mergeCell ref="J470:J477"/>
+    <mergeCell ref="D470:D477"/>
+    <mergeCell ref="C470:C477"/>
+    <mergeCell ref="J478:J484"/>
+    <mergeCell ref="D478:D484"/>
+    <mergeCell ref="C478:C484"/>
+    <mergeCell ref="B469:B485"/>
+    <mergeCell ref="A469:A485"/>
+    <mergeCell ref="J297:J298"/>
+    <mergeCell ref="D297:D298"/>
+    <mergeCell ref="C297:C298"/>
+    <mergeCell ref="J301:J309"/>
+    <mergeCell ref="D301:D309"/>
+    <mergeCell ref="C487:C495"/>
+    <mergeCell ref="D487:D495"/>
+    <mergeCell ref="J487:J495"/>
+    <mergeCell ref="J498:J506"/>
+    <mergeCell ref="D498:D506"/>
+    <mergeCell ref="C498:C506"/>
+    <mergeCell ref="D455:D462"/>
+    <mergeCell ref="J455:J462"/>
+    <mergeCell ref="C455:C462"/>
+    <mergeCell ref="D415:D417"/>
+    <mergeCell ref="C415:C417"/>
+    <mergeCell ref="J415:J417"/>
+    <mergeCell ref="J419:J427"/>
+    <mergeCell ref="D419:D427"/>
+    <mergeCell ref="C419:C427"/>
+    <mergeCell ref="C301:C309"/>
+    <mergeCell ref="J324:J332"/>
+    <mergeCell ref="D324:D332"/>
+    <mergeCell ref="C324:C332"/>
+    <mergeCell ref="C311:C314"/>
+    <mergeCell ref="D311:D314"/>
+    <mergeCell ref="B311:B317"/>
+    <mergeCell ref="B318:B334"/>
+    <mergeCell ref="A318:A334"/>
+    <mergeCell ref="A311:A317"/>
+    <mergeCell ref="A44:A52"/>
+    <mergeCell ref="J44:J52"/>
+    <mergeCell ref="J31:J38"/>
+    <mergeCell ref="C31:C38"/>
+    <mergeCell ref="D31:D38"/>
+    <mergeCell ref="K78:K98"/>
+    <mergeCell ref="K65:K77"/>
+    <mergeCell ref="K53:K64"/>
+    <mergeCell ref="K44:K52"/>
+    <mergeCell ref="J84:J86"/>
+    <mergeCell ref="J87:J95"/>
+    <mergeCell ref="D87:D95"/>
+    <mergeCell ref="C87:C95"/>
+    <mergeCell ref="J56:J58"/>
+    <mergeCell ref="C56:C58"/>
+    <mergeCell ref="D56:D58"/>
+    <mergeCell ref="B78:B98"/>
+    <mergeCell ref="A78:A98"/>
+    <mergeCell ref="D74:D77"/>
+    <mergeCell ref="J53:J54"/>
+    <mergeCell ref="J78:J83"/>
+    <mergeCell ref="C78:C83"/>
+    <mergeCell ref="D78:D83"/>
+    <mergeCell ref="C65:C73"/>
+    <mergeCell ref="K562:K581"/>
+    <mergeCell ref="K582:K593"/>
+    <mergeCell ref="K594:K636"/>
+    <mergeCell ref="K365:K413"/>
+    <mergeCell ref="K414:K427"/>
+    <mergeCell ref="K428:K454"/>
+    <mergeCell ref="K455:K468"/>
+    <mergeCell ref="K469:K485"/>
+    <mergeCell ref="K486:K497"/>
+    <mergeCell ref="K498:K512"/>
+    <mergeCell ref="K513:K516"/>
+    <mergeCell ref="K517:K535"/>
+    <mergeCell ref="K335:K363"/>
+    <mergeCell ref="K99:K119"/>
+    <mergeCell ref="K121:K151"/>
+    <mergeCell ref="K152:K156"/>
+    <mergeCell ref="K157:K171"/>
+    <mergeCell ref="K173:K181"/>
+    <mergeCell ref="K185:K200"/>
+    <mergeCell ref="K536:K544"/>
+    <mergeCell ref="K545:K561"/>
+    <mergeCell ref="K201:K216"/>
+    <mergeCell ref="K217:K228"/>
+    <mergeCell ref="K229:K238"/>
+    <mergeCell ref="K239:K262"/>
+    <mergeCell ref="K263:K287"/>
+    <mergeCell ref="K288:K290"/>
+    <mergeCell ref="K291:K296"/>
+    <mergeCell ref="K297:K310"/>
+    <mergeCell ref="K311:K317"/>
+    <mergeCell ref="K318:K334"/>
   </mergeCells>
   <phoneticPr fontId="18" type="noConversion"/>
   <conditionalFormatting sqref="E407:E413">
